--- a/downloads/Banding_Dictionary.xlsx
+++ b/downloads/Banding_Dictionary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://doimspp-my.sharepoint.com/personal/hannah_vincelette_fws_gov/Documents/Documents/Data_management/landbirds_project_maintenance/Reformatted_data/_Dictionaries/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://doimspp-my.sharepoint.com/personal/hannah_vincelette_fws_gov/Documents/Documents/GitHub/landbird-dp-workflow/downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="109" documentId="11_2289D301091B2B4030687AF5F393CD8BCC9B1276" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{82697193-AFA0-475B-A98E-DDBB968DBB27}"/>
+  <xr:revisionPtr revIDLastSave="111" documentId="11_2289D301091B2B4030687AF5F393CD8BCC9B1276" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{602CD6E5-1A7B-4CC5-BC5C-0AAC88727314}"/>
   <bookViews>
-    <workbookView xWindow="702" yWindow="702" windowWidth="17952" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10440" yWindow="3090" windowWidth="15765" windowHeight="10275" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data_dictionary" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2605" uniqueCount="697">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2475" uniqueCount="697">
   <si>
     <t>codeName</t>
   </si>
@@ -2462,27 +2462,27 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A255" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D267" sqref="D267"/>
+      <selection pane="bottomLeft" activeCell="I1" activeCellId="1" sqref="F1:F1048576 I1:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.20703125" customWidth="1"/>
-    <col min="2" max="2" width="17.3125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.140625" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.47265625" customWidth="1"/>
-    <col min="6" max="6" width="8.7890625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.1015625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.1015625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.68359375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.7890625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.3125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.68359375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2526,7 +2526,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>690</v>
       </c>
@@ -2542,14 +2542,14 @@
       <c r="E2" t="s">
         <v>18</v>
       </c>
-      <c r="F2" t="s">
-        <v>16</v>
+      <c r="F2" t="b">
+        <v>0</v>
       </c>
       <c r="J2">
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>59</v>
       </c>
@@ -2565,11 +2565,11 @@
       <c r="E3" t="s">
         <v>15</v>
       </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="F3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>59</v>
       </c>
@@ -2583,7 +2583,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>59</v>
       </c>
@@ -2597,7 +2597,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>65</v>
       </c>
@@ -2613,11 +2613,11 @@
       <c r="E6" t="s">
         <v>30</v>
       </c>
-      <c r="F6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="F6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>67</v>
       </c>
@@ -2633,11 +2633,11 @@
       <c r="E7" t="s">
         <v>30</v>
       </c>
-      <c r="F7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="F7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>688</v>
       </c>
@@ -2653,11 +2653,11 @@
       <c r="E8" t="s">
         <v>42</v>
       </c>
-      <c r="F8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="F8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>47</v>
       </c>
@@ -2673,11 +2673,11 @@
       <c r="E9" t="s">
         <v>46</v>
       </c>
-      <c r="F9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="F9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>70</v>
       </c>
@@ -2693,8 +2693,8 @@
       <c r="E10" t="s">
         <v>30</v>
       </c>
-      <c r="F10" t="s">
-        <v>17</v>
+      <c r="F10" t="b">
+        <v>1</v>
       </c>
       <c r="L10">
         <v>1</v>
@@ -2703,7 +2703,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>72</v>
       </c>
@@ -2719,8 +2719,8 @@
       <c r="E11" t="s">
         <v>30</v>
       </c>
-      <c r="F11" t="s">
-        <v>17</v>
+      <c r="F11" t="b">
+        <v>1</v>
       </c>
       <c r="L11">
         <v>1</v>
@@ -2729,7 +2729,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>74</v>
       </c>
@@ -2745,11 +2745,11 @@
       <c r="E12" t="s">
         <v>15</v>
       </c>
-      <c r="F12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="F12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>76</v>
       </c>
@@ -2765,11 +2765,11 @@
       <c r="E13" t="s">
         <v>15</v>
       </c>
-      <c r="F13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="F13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>76</v>
       </c>
@@ -2783,7 +2783,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>76</v>
       </c>
@@ -2797,7 +2797,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>76</v>
       </c>
@@ -2811,7 +2811,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>76</v>
       </c>
@@ -2825,7 +2825,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>76</v>
       </c>
@@ -2839,7 +2839,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>82</v>
       </c>
@@ -2855,11 +2855,11 @@
       <c r="E19" t="s">
         <v>15</v>
       </c>
-      <c r="F19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>82</v>
       </c>
@@ -2873,7 +2873,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>82</v>
       </c>
@@ -2887,7 +2887,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>82</v>
       </c>
@@ -2901,7 +2901,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>82</v>
       </c>
@@ -2915,7 +2915,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>82</v>
       </c>
@@ -2929,7 +2929,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>82</v>
       </c>
@@ -2943,7 +2943,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>96</v>
       </c>
@@ -2959,11 +2959,11 @@
       <c r="E26" t="s">
         <v>15</v>
       </c>
-      <c r="F26" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>96</v>
       </c>
@@ -2977,7 +2977,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>96</v>
       </c>
@@ -2991,7 +2991,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>96</v>
       </c>
@@ -3005,7 +3005,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>96</v>
       </c>
@@ -3019,7 +3019,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>96</v>
       </c>
@@ -3033,7 +3033,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>96</v>
       </c>
@@ -3047,7 +3047,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>96</v>
       </c>
@@ -3061,7 +3061,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>96</v>
       </c>
@@ -3075,7 +3075,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>96</v>
       </c>
@@ -3089,7 +3089,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>96</v>
       </c>
@@ -3103,7 +3103,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>96</v>
       </c>
@@ -3117,7 +3117,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>120</v>
       </c>
@@ -3133,11 +3133,11 @@
       <c r="E38" t="s">
         <v>15</v>
       </c>
-      <c r="F38" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F38" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>122</v>
       </c>
@@ -3153,11 +3153,11 @@
       <c r="E39" t="s">
         <v>15</v>
       </c>
-      <c r="F39" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F39" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>124</v>
       </c>
@@ -3173,14 +3173,14 @@
       <c r="E40" t="s">
         <v>38</v>
       </c>
-      <c r="F40" t="s">
-        <v>17</v>
+      <c r="F40" t="b">
+        <v>1</v>
       </c>
       <c r="G40" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>127</v>
       </c>
@@ -3196,14 +3196,14 @@
       <c r="E41" t="s">
         <v>38</v>
       </c>
-      <c r="F41" t="s">
-        <v>17</v>
+      <c r="F41" t="b">
+        <v>1</v>
       </c>
       <c r="G41" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>129</v>
       </c>
@@ -3219,11 +3219,11 @@
       <c r="E42" t="s">
         <v>38</v>
       </c>
-      <c r="F42" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F42" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>131</v>
       </c>
@@ -3239,11 +3239,11 @@
       <c r="E43" t="s">
         <v>38</v>
       </c>
-      <c r="F43" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F43" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>133</v>
       </c>
@@ -3259,11 +3259,11 @@
       <c r="E44" t="s">
         <v>18</v>
       </c>
-      <c r="F44" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F44" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>133</v>
       </c>
@@ -3277,7 +3277,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>133</v>
       </c>
@@ -3291,7 +3291,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>139</v>
       </c>
@@ -3307,11 +3307,11 @@
       <c r="E47" t="s">
         <v>30</v>
       </c>
-      <c r="F47" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F47" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>141</v>
       </c>
@@ -3327,11 +3327,11 @@
       <c r="E48" t="s">
         <v>15</v>
       </c>
-      <c r="F48" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F48" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>143</v>
       </c>
@@ -3347,11 +3347,11 @@
       <c r="E49" t="s">
         <v>15</v>
       </c>
-      <c r="F49" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F49" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>145</v>
       </c>
@@ -3367,11 +3367,11 @@
       <c r="E50" t="s">
         <v>43</v>
       </c>
-      <c r="F50" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F50" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>147</v>
       </c>
@@ -3387,11 +3387,11 @@
       <c r="E51" t="s">
         <v>43</v>
       </c>
-      <c r="F51" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F51" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>149</v>
       </c>
@@ -3407,11 +3407,11 @@
       <c r="E52" t="s">
         <v>18</v>
       </c>
-      <c r="F52" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F52" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>149</v>
       </c>
@@ -3425,7 +3425,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>149</v>
       </c>
@@ -3439,7 +3439,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>149</v>
       </c>
@@ -3453,7 +3453,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>149</v>
       </c>
@@ -3467,7 +3467,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>149</v>
       </c>
@@ -3481,7 +3481,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>149</v>
       </c>
@@ -3495,7 +3495,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>149</v>
       </c>
@@ -3509,7 +3509,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>149</v>
       </c>
@@ -3523,7 +3523,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>149</v>
       </c>
@@ -3537,7 +3537,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>149</v>
       </c>
@@ -3551,7 +3551,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>149</v>
       </c>
@@ -3565,7 +3565,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>165</v>
       </c>
@@ -3581,11 +3581,11 @@
       <c r="E64" t="s">
         <v>30</v>
       </c>
-      <c r="F64" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="F64" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>165</v>
       </c>
@@ -3599,7 +3599,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>165</v>
       </c>
@@ -3613,7 +3613,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>165</v>
       </c>
@@ -3627,7 +3627,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>165</v>
       </c>
@@ -3641,7 +3641,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>165</v>
       </c>
@@ -3655,7 +3655,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>165</v>
       </c>
@@ -3669,7 +3669,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>165</v>
       </c>
@@ -3683,7 +3683,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>165</v>
       </c>
@@ -3697,7 +3697,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>165</v>
       </c>
@@ -3711,7 +3711,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>165</v>
       </c>
@@ -3725,7 +3725,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>165</v>
       </c>
@@ -3739,7 +3739,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>165</v>
       </c>
@@ -3753,7 +3753,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>165</v>
       </c>
@@ -3767,7 +3767,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>165</v>
       </c>
@@ -3781,7 +3781,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>165</v>
       </c>
@@ -3795,7 +3795,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>165</v>
       </c>
@@ -3809,7 +3809,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>184</v>
       </c>
@@ -3825,11 +3825,11 @@
       <c r="E81" t="s">
         <v>30</v>
       </c>
-      <c r="F81" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F81" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>184</v>
       </c>
@@ -3843,7 +3843,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>184</v>
       </c>
@@ -3857,7 +3857,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>184</v>
       </c>
@@ -3871,7 +3871,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>184</v>
       </c>
@@ -3885,7 +3885,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>184</v>
       </c>
@@ -3899,7 +3899,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>184</v>
       </c>
@@ -3913,7 +3913,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>184</v>
       </c>
@@ -3927,7 +3927,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>184</v>
       </c>
@@ -3941,7 +3941,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>184</v>
       </c>
@@ -3955,7 +3955,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>184</v>
       </c>
@@ -3969,7 +3969,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>206</v>
       </c>
@@ -3985,11 +3985,11 @@
       <c r="E92" t="s">
         <v>15</v>
       </c>
-      <c r="F92" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F92" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>206</v>
       </c>
@@ -4003,7 +4003,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>206</v>
       </c>
@@ -4017,7 +4017,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>206</v>
       </c>
@@ -4031,7 +4031,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>206</v>
       </c>
@@ -4045,7 +4045,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>206</v>
       </c>
@@ -4059,7 +4059,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>206</v>
       </c>
@@ -4073,7 +4073,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>206</v>
       </c>
@@ -4087,7 +4087,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>206</v>
       </c>
@@ -4101,7 +4101,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>206</v>
       </c>
@@ -4115,7 +4115,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>206</v>
       </c>
@@ -4129,7 +4129,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>206</v>
       </c>
@@ -4143,7 +4143,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>206</v>
       </c>
@@ -4157,7 +4157,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>206</v>
       </c>
@@ -4171,7 +4171,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>206</v>
       </c>
@@ -4185,7 +4185,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>206</v>
       </c>
@@ -4199,7 +4199,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>206</v>
       </c>
@@ -4213,7 +4213,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>206</v>
       </c>
@@ -4227,7 +4227,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>241</v>
       </c>
@@ -4243,11 +4243,11 @@
       <c r="E110" t="s">
         <v>15</v>
       </c>
-      <c r="F110" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F110" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>241</v>
       </c>
@@ -4261,7 +4261,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>241</v>
       </c>
@@ -4275,7 +4275,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>241</v>
       </c>
@@ -4289,7 +4289,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>241</v>
       </c>
@@ -4303,7 +4303,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>241</v>
       </c>
@@ -4317,7 +4317,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>241</v>
       </c>
@@ -4331,7 +4331,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>241</v>
       </c>
@@ -4345,7 +4345,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>241</v>
       </c>
@@ -4359,7 +4359,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>241</v>
       </c>
@@ -4373,7 +4373,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>241</v>
       </c>
@@ -4387,7 +4387,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>241</v>
       </c>
@@ -4401,7 +4401,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>241</v>
       </c>
@@ -4415,7 +4415,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>241</v>
       </c>
@@ -4429,7 +4429,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>241</v>
       </c>
@@ -4443,7 +4443,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>241</v>
       </c>
@@ -4457,7 +4457,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>241</v>
       </c>
@@ -4471,7 +4471,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>241</v>
       </c>
@@ -4485,7 +4485,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>243</v>
       </c>
@@ -4501,11 +4501,11 @@
       <c r="E128" t="s">
         <v>15</v>
       </c>
-      <c r="F128" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="F128" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>243</v>
       </c>
@@ -4519,7 +4519,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>243</v>
       </c>
@@ -4533,7 +4533,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>243</v>
       </c>
@@ -4547,7 +4547,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>243</v>
       </c>
@@ -4561,7 +4561,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>243</v>
       </c>
@@ -4575,7 +4575,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>243</v>
       </c>
@@ -4589,7 +4589,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>243</v>
       </c>
@@ -4603,7 +4603,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>243</v>
       </c>
@@ -4617,7 +4617,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>243</v>
       </c>
@@ -4631,7 +4631,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>243</v>
       </c>
@@ -4645,7 +4645,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>243</v>
       </c>
@@ -4659,7 +4659,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>243</v>
       </c>
@@ -4673,7 +4673,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>243</v>
       </c>
@@ -4687,7 +4687,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>243</v>
       </c>
@@ -4701,7 +4701,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>243</v>
       </c>
@@ -4715,7 +4715,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>243</v>
       </c>
@@ -4729,7 +4729,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>243</v>
       </c>
@@ -4743,7 +4743,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>245</v>
       </c>
@@ -4759,11 +4759,11 @@
       <c r="E146" t="s">
         <v>15</v>
       </c>
-      <c r="F146" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F146" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>245</v>
       </c>
@@ -4777,7 +4777,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>245</v>
       </c>
@@ -4791,7 +4791,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>245</v>
       </c>
@@ -4805,7 +4805,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>245</v>
       </c>
@@ -4819,7 +4819,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>245</v>
       </c>
@@ -4833,7 +4833,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>245</v>
       </c>
@@ -4847,7 +4847,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>245</v>
       </c>
@@ -4861,7 +4861,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>245</v>
       </c>
@@ -4875,7 +4875,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>245</v>
       </c>
@@ -4889,7 +4889,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>245</v>
       </c>
@@ -4903,7 +4903,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>245</v>
       </c>
@@ -4917,7 +4917,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>245</v>
       </c>
@@ -4931,7 +4931,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>245</v>
       </c>
@@ -4945,7 +4945,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>245</v>
       </c>
@@ -4959,7 +4959,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>245</v>
       </c>
@@ -4973,7 +4973,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>245</v>
       </c>
@@ -4987,7 +4987,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>245</v>
       </c>
@@ -5001,7 +5001,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>247</v>
       </c>
@@ -5017,11 +5017,11 @@
       <c r="E164" t="s">
         <v>15</v>
       </c>
-      <c r="F164" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F164" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>247</v>
       </c>
@@ -5035,7 +5035,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>247</v>
       </c>
@@ -5049,7 +5049,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>247</v>
       </c>
@@ -5063,7 +5063,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>247</v>
       </c>
@@ -5077,7 +5077,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>247</v>
       </c>
@@ -5091,7 +5091,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>247</v>
       </c>
@@ -5105,7 +5105,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>247</v>
       </c>
@@ -5119,7 +5119,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>247</v>
       </c>
@@ -5133,7 +5133,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>247</v>
       </c>
@@ -5147,7 +5147,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>247</v>
       </c>
@@ -5161,7 +5161,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>247</v>
       </c>
@@ -5175,7 +5175,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>247</v>
       </c>
@@ -5189,7 +5189,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>247</v>
       </c>
@@ -5203,7 +5203,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>247</v>
       </c>
@@ -5217,7 +5217,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>247</v>
       </c>
@@ -5231,7 +5231,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>247</v>
       </c>
@@ -5245,7 +5245,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>247</v>
       </c>
@@ -5259,7 +5259,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>249</v>
       </c>
@@ -5275,11 +5275,11 @@
       <c r="E182" t="s">
         <v>15</v>
       </c>
-      <c r="F182" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F182" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>249</v>
       </c>
@@ -5293,7 +5293,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>249</v>
       </c>
@@ -5307,7 +5307,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>249</v>
       </c>
@@ -5321,7 +5321,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>249</v>
       </c>
@@ -5335,7 +5335,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>249</v>
       </c>
@@ -5349,7 +5349,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>249</v>
       </c>
@@ -5363,7 +5363,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>249</v>
       </c>
@@ -5377,7 +5377,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>249</v>
       </c>
@@ -5391,7 +5391,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>249</v>
       </c>
@@ -5405,7 +5405,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>249</v>
       </c>
@@ -5419,7 +5419,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>249</v>
       </c>
@@ -5433,7 +5433,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>249</v>
       </c>
@@ -5447,7 +5447,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>249</v>
       </c>
@@ -5461,7 +5461,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>249</v>
       </c>
@@ -5475,7 +5475,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>249</v>
       </c>
@@ -5489,7 +5489,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>249</v>
       </c>
@@ -5503,7 +5503,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>249</v>
       </c>
@@ -5517,7 +5517,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>251</v>
       </c>
@@ -5533,11 +5533,11 @@
       <c r="E200" t="s">
         <v>15</v>
       </c>
-      <c r="F200" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F200" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>251</v>
       </c>
@@ -5551,7 +5551,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>251</v>
       </c>
@@ -5565,7 +5565,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>251</v>
       </c>
@@ -5579,7 +5579,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>251</v>
       </c>
@@ -5593,7 +5593,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>251</v>
       </c>
@@ -5607,7 +5607,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>251</v>
       </c>
@@ -5621,7 +5621,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>251</v>
       </c>
@@ -5635,7 +5635,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>251</v>
       </c>
@@ -5649,7 +5649,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>251</v>
       </c>
@@ -5663,7 +5663,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>251</v>
       </c>
@@ -5677,7 +5677,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>251</v>
       </c>
@@ -5691,7 +5691,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>251</v>
       </c>
@@ -5705,7 +5705,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>251</v>
       </c>
@@ -5719,7 +5719,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>251</v>
       </c>
@@ -5733,7 +5733,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>251</v>
       </c>
@@ -5747,7 +5747,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>251</v>
       </c>
@@ -5761,7 +5761,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>251</v>
       </c>
@@ -5775,7 +5775,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>253</v>
       </c>
@@ -5791,11 +5791,11 @@
       <c r="E218" t="s">
         <v>15</v>
       </c>
-      <c r="F218" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F218" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>253</v>
       </c>
@@ -5809,7 +5809,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>253</v>
       </c>
@@ -5823,7 +5823,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>253</v>
       </c>
@@ -5837,7 +5837,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>253</v>
       </c>
@@ -5851,7 +5851,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>253</v>
       </c>
@@ -5865,7 +5865,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>253</v>
       </c>
@@ -5879,7 +5879,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>253</v>
       </c>
@@ -5893,7 +5893,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>253</v>
       </c>
@@ -5907,7 +5907,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>253</v>
       </c>
@@ -5921,7 +5921,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>253</v>
       </c>
@@ -5935,7 +5935,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>253</v>
       </c>
@@ -5949,7 +5949,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>253</v>
       </c>
@@ -5963,7 +5963,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>253</v>
       </c>
@@ -5977,7 +5977,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>253</v>
       </c>
@@ -5991,7 +5991,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>253</v>
       </c>
@@ -6005,7 +6005,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>253</v>
       </c>
@@ -6019,7 +6019,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>253</v>
       </c>
@@ -6033,7 +6033,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>255</v>
       </c>
@@ -6049,11 +6049,11 @@
       <c r="E236" t="s">
         <v>15</v>
       </c>
-      <c r="F236" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F236" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>255</v>
       </c>
@@ -6067,7 +6067,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>255</v>
       </c>
@@ -6081,7 +6081,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>255</v>
       </c>
@@ -6095,7 +6095,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>255</v>
       </c>
@@ -6109,7 +6109,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>260</v>
       </c>
@@ -6125,11 +6125,11 @@
       <c r="E241" t="s">
         <v>15</v>
       </c>
-      <c r="F241" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F241" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>260</v>
       </c>
@@ -6143,7 +6143,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>260</v>
       </c>
@@ -6157,7 +6157,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>260</v>
       </c>
@@ -6171,7 +6171,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>260</v>
       </c>
@@ -6185,7 +6185,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>262</v>
       </c>
@@ -6201,11 +6201,11 @@
       <c r="E246" t="s">
         <v>15</v>
       </c>
-      <c r="F246" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F246" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>264</v>
       </c>
@@ -6221,11 +6221,11 @@
       <c r="E247" t="s">
         <v>15</v>
       </c>
-      <c r="F247" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F247" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>266</v>
       </c>
@@ -6241,11 +6241,11 @@
       <c r="E248" t="s">
         <v>15</v>
       </c>
-      <c r="F248" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F248" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>695</v>
       </c>
@@ -6261,11 +6261,11 @@
       <c r="E249" t="s">
         <v>15</v>
       </c>
-      <c r="F249" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F249" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>268</v>
       </c>
@@ -6281,11 +6281,11 @@
       <c r="E250" t="s">
         <v>15</v>
       </c>
-      <c r="F250" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F250" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>270</v>
       </c>
@@ -6301,11 +6301,11 @@
       <c r="E251" t="s">
         <v>15</v>
       </c>
-      <c r="F251" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F251" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>270</v>
       </c>
@@ -6319,7 +6319,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>274</v>
       </c>
@@ -6335,11 +6335,11 @@
       <c r="E253" t="s">
         <v>15</v>
       </c>
-      <c r="F253" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F253" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>274</v>
       </c>
@@ -6353,7 +6353,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>276</v>
       </c>
@@ -6369,11 +6369,11 @@
       <c r="E255" t="s">
         <v>15</v>
       </c>
-      <c r="F255" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F255" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>278</v>
       </c>
@@ -6389,11 +6389,11 @@
       <c r="E256" t="s">
         <v>15</v>
       </c>
-      <c r="F256" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F256" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>278</v>
       </c>
@@ -6407,7 +6407,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>278</v>
       </c>
@@ -6421,7 +6421,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>278</v>
       </c>
@@ -6435,7 +6435,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>278</v>
       </c>
@@ -6449,7 +6449,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>278</v>
       </c>
@@ -6463,7 +6463,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>278</v>
       </c>
@@ -6477,7 +6477,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>278</v>
       </c>
@@ -6491,7 +6491,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>278</v>
       </c>
@@ -6505,7 +6505,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>288</v>
       </c>
@@ -6521,11 +6521,11 @@
       <c r="E265" t="s">
         <v>15</v>
       </c>
-      <c r="F265" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F265" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>288</v>
       </c>
@@ -6539,7 +6539,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>288</v>
       </c>
@@ -6553,7 +6553,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>288</v>
       </c>
@@ -6567,7 +6567,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>288</v>
       </c>
@@ -6581,7 +6581,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>288</v>
       </c>
@@ -6595,7 +6595,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>288</v>
       </c>
@@ -6609,7 +6609,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>288</v>
       </c>
@@ -6623,7 +6623,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>288</v>
       </c>
@@ -6637,7 +6637,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>306</v>
       </c>
@@ -6653,11 +6653,11 @@
       <c r="E274" t="s">
         <v>18</v>
       </c>
-      <c r="F274" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F274" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>306</v>
       </c>
@@ -6671,7 +6671,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>306</v>
       </c>
@@ -6685,7 +6685,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>306</v>
       </c>
@@ -6699,7 +6699,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>311</v>
       </c>
@@ -6715,11 +6715,11 @@
       <c r="E278" t="s">
         <v>18</v>
       </c>
-      <c r="F278" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F278" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>311</v>
       </c>
@@ -6733,7 +6733,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>311</v>
       </c>
@@ -6747,7 +6747,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>311</v>
       </c>
@@ -6761,7 +6761,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>313</v>
       </c>
@@ -6777,11 +6777,11 @@
       <c r="E282" t="s">
         <v>15</v>
       </c>
-      <c r="F282" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F282" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>313</v>
       </c>
@@ -6795,7 +6795,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>313</v>
       </c>
@@ -6809,7 +6809,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>313</v>
       </c>
@@ -6823,7 +6823,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>313</v>
       </c>
@@ -6837,7 +6837,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>313</v>
       </c>
@@ -6851,7 +6851,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>313</v>
       </c>
@@ -6865,7 +6865,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>313</v>
       </c>
@@ -6879,7 +6879,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>313</v>
       </c>
@@ -6893,7 +6893,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>313</v>
       </c>
@@ -6907,7 +6907,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>313</v>
       </c>
@@ -6921,7 +6921,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>313</v>
       </c>
@@ -6935,7 +6935,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>313</v>
       </c>
@@ -6949,7 +6949,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>313</v>
       </c>
@@ -6963,7 +6963,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>313</v>
       </c>
@@ -6977,7 +6977,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>313</v>
       </c>
@@ -6991,7 +6991,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>313</v>
       </c>
@@ -7005,7 +7005,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>313</v>
       </c>
@@ -7019,7 +7019,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>313</v>
       </c>
@@ -7033,7 +7033,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>313</v>
       </c>
@@ -7047,7 +7047,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>313</v>
       </c>
@@ -7061,7 +7061,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>313</v>
       </c>
@@ -7075,7 +7075,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>313</v>
       </c>
@@ -7089,7 +7089,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>313</v>
       </c>
@@ -7103,7 +7103,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>313</v>
       </c>
@@ -7117,7 +7117,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>313</v>
       </c>
@@ -7131,7 +7131,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>313</v>
       </c>
@@ -7145,7 +7145,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>367</v>
       </c>
@@ -7161,11 +7161,11 @@
       <c r="E309" t="s">
         <v>15</v>
       </c>
-      <c r="F309" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F309" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>367</v>
       </c>
@@ -7179,7 +7179,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>367</v>
       </c>
@@ -7193,7 +7193,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>367</v>
       </c>
@@ -7207,7 +7207,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>367</v>
       </c>
@@ -7221,7 +7221,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>367</v>
       </c>
@@ -7235,7 +7235,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>367</v>
       </c>
@@ -7249,7 +7249,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>367</v>
       </c>
@@ -7263,7 +7263,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>367</v>
       </c>
@@ -7277,7 +7277,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>367</v>
       </c>
@@ -7291,7 +7291,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>367</v>
       </c>
@@ -7305,7 +7305,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>367</v>
       </c>
@@ -7319,7 +7319,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>367</v>
       </c>
@@ -7333,7 +7333,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>367</v>
       </c>
@@ -7347,7 +7347,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>367</v>
       </c>
@@ -7361,7 +7361,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>367</v>
       </c>
@@ -7375,7 +7375,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>367</v>
       </c>
@@ -7389,7 +7389,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>367</v>
       </c>
@@ -7403,7 +7403,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>367</v>
       </c>
@@ -7417,7 +7417,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>367</v>
       </c>
@@ -7431,7 +7431,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>383</v>
       </c>
@@ -7447,14 +7447,14 @@
       <c r="E329" t="s">
         <v>38</v>
       </c>
-      <c r="F329" t="s">
-        <v>17</v>
+      <c r="F329" t="b">
+        <v>1</v>
       </c>
       <c r="G329" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>386</v>
       </c>
@@ -7470,11 +7470,11 @@
       <c r="E330" t="s">
         <v>30</v>
       </c>
-      <c r="F330" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F330" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>386</v>
       </c>
@@ -7488,7 +7488,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>386</v>
       </c>
@@ -7502,7 +7502,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>386</v>
       </c>
@@ -7516,7 +7516,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>386</v>
       </c>
@@ -7530,7 +7530,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>386</v>
       </c>
@@ -7544,7 +7544,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>386</v>
       </c>
@@ -7558,7 +7558,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="337" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="337" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>386</v>
       </c>
@@ -7572,7 +7572,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="338" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="338" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>386</v>
       </c>
@@ -7586,7 +7586,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="339" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="339" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>396</v>
       </c>
@@ -7602,14 +7602,14 @@
       <c r="E339" t="s">
         <v>38</v>
       </c>
-      <c r="F339" t="s">
-        <v>17</v>
+      <c r="F339" t="b">
+        <v>1</v>
       </c>
       <c r="G339" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="340" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="340" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>399</v>
       </c>
@@ -7625,14 +7625,14 @@
       <c r="E340" t="s">
         <v>38</v>
       </c>
-      <c r="F340" t="s">
-        <v>17</v>
+      <c r="F340" t="b">
+        <v>1</v>
       </c>
       <c r="G340" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="341" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="341" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>401</v>
       </c>
@@ -7648,14 +7648,14 @@
       <c r="E341" t="s">
         <v>38</v>
       </c>
-      <c r="F341" t="s">
-        <v>17</v>
+      <c r="F341" t="b">
+        <v>1</v>
       </c>
       <c r="G341" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="342" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="342" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>403</v>
       </c>
@@ -7671,14 +7671,14 @@
       <c r="E342" t="s">
         <v>38</v>
       </c>
-      <c r="F342" t="s">
-        <v>17</v>
+      <c r="F342" t="b">
+        <v>1</v>
       </c>
       <c r="G342" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="343" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="343" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>405</v>
       </c>
@@ -7694,14 +7694,14 @@
       <c r="E343" t="s">
         <v>38</v>
       </c>
-      <c r="F343" t="s">
-        <v>17</v>
+      <c r="F343" t="b">
+        <v>1</v>
       </c>
       <c r="G343" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="344" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="344" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>407</v>
       </c>
@@ -7717,14 +7717,14 @@
       <c r="E344" t="s">
         <v>38</v>
       </c>
-      <c r="F344" t="s">
-        <v>17</v>
+      <c r="F344" t="b">
+        <v>1</v>
       </c>
       <c r="G344" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="345" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="345" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>409</v>
       </c>
@@ -7740,14 +7740,14 @@
       <c r="E345" t="s">
         <v>38</v>
       </c>
-      <c r="F345" t="s">
-        <v>17</v>
+      <c r="F345" t="b">
+        <v>1</v>
       </c>
       <c r="G345" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="346" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="346" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>411</v>
       </c>
@@ -7763,14 +7763,14 @@
       <c r="E346" t="s">
         <v>38</v>
       </c>
-      <c r="F346" t="s">
-        <v>17</v>
+      <c r="F346" t="b">
+        <v>1</v>
       </c>
       <c r="G346" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="347" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="347" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>413</v>
       </c>
@@ -7786,8 +7786,8 @@
       <c r="E347" t="s">
         <v>38</v>
       </c>
-      <c r="F347" t="s">
-        <v>17</v>
+      <c r="F347" t="b">
+        <v>1</v>
       </c>
       <c r="G347" t="s">
         <v>398</v>
@@ -7796,7 +7796,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="348" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="348" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>416</v>
       </c>
@@ -7812,8 +7812,8 @@
       <c r="E348" t="s">
         <v>38</v>
       </c>
-      <c r="F348" t="s">
-        <v>17</v>
+      <c r="F348" t="b">
+        <v>1</v>
       </c>
       <c r="G348" t="s">
         <v>398</v>
@@ -7822,7 +7822,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="349" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="349" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>418</v>
       </c>
@@ -7838,8 +7838,8 @@
       <c r="E349" t="s">
         <v>38</v>
       </c>
-      <c r="F349" t="s">
-        <v>17</v>
+      <c r="F349" t="b">
+        <v>1</v>
       </c>
       <c r="G349" t="s">
         <v>398</v>
@@ -7848,7 +7848,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="350" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="350" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>421</v>
       </c>
@@ -7864,8 +7864,8 @@
       <c r="E350" t="s">
         <v>38</v>
       </c>
-      <c r="F350" t="s">
-        <v>17</v>
+      <c r="F350" t="b">
+        <v>1</v>
       </c>
       <c r="G350" t="s">
         <v>398</v>
@@ -7874,7 +7874,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="351" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="351" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>423</v>
       </c>
@@ -7890,8 +7890,8 @@
       <c r="E351" t="s">
         <v>38</v>
       </c>
-      <c r="F351" t="s">
-        <v>17</v>
+      <c r="F351" t="b">
+        <v>1</v>
       </c>
       <c r="G351" t="s">
         <v>398</v>
@@ -7900,7 +7900,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="352" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="352" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>425</v>
       </c>
@@ -7916,8 +7916,8 @@
       <c r="E352" t="s">
         <v>38</v>
       </c>
-      <c r="F352" t="s">
-        <v>17</v>
+      <c r="F352" t="b">
+        <v>1</v>
       </c>
       <c r="G352" t="s">
         <v>398</v>
@@ -7926,7 +7926,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="353" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="353" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>427</v>
       </c>
@@ -7942,8 +7942,8 @@
       <c r="E353" t="s">
         <v>38</v>
       </c>
-      <c r="F353" t="s">
-        <v>17</v>
+      <c r="F353" t="b">
+        <v>1</v>
       </c>
       <c r="G353" t="s">
         <v>398</v>
@@ -7952,7 +7952,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="354" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="354" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>429</v>
       </c>
@@ -7968,14 +7968,14 @@
       <c r="E354" t="s">
         <v>30</v>
       </c>
-      <c r="F354" t="s">
-        <v>17</v>
+      <c r="F354" t="b">
+        <v>1</v>
       </c>
       <c r="N354" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="355" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="355" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>429</v>
       </c>
@@ -7989,7 +7989,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="356" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="356" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>429</v>
       </c>
@@ -8003,7 +8003,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="357" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="357" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>429</v>
       </c>
@@ -8017,7 +8017,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="358" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="358" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>429</v>
       </c>
@@ -8031,7 +8031,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="359" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="359" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>435</v>
       </c>
@@ -8047,11 +8047,11 @@
       <c r="E359" t="s">
         <v>30</v>
       </c>
-      <c r="F359" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="360" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="F359" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="360" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>435</v>
       </c>
@@ -8065,7 +8065,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="361" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="361" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>435</v>
       </c>
@@ -8079,7 +8079,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="362" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="362" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>435</v>
       </c>
@@ -8093,7 +8093,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="363" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="363" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>435</v>
       </c>
@@ -8107,7 +8107,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="364" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="364" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>435</v>
       </c>
@@ -8121,7 +8121,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="365" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="365" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>435</v>
       </c>
@@ -8135,7 +8135,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="366" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="366" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>435</v>
       </c>
@@ -8149,7 +8149,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="367" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="367" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>445</v>
       </c>
@@ -8165,14 +8165,14 @@
       <c r="E367" t="s">
         <v>18</v>
       </c>
-      <c r="F367" t="s">
-        <v>17</v>
+      <c r="F367" t="b">
+        <v>1</v>
       </c>
       <c r="N367" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="368" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="368" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>445</v>
       </c>
@@ -8189,7 +8189,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="369" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="369" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>445</v>
       </c>
@@ -8206,7 +8206,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="370" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="370" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>445</v>
       </c>
@@ -8223,7 +8223,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="371" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="371" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>362</v>
       </c>
@@ -8239,14 +8239,14 @@
       <c r="E371" t="s">
         <v>30</v>
       </c>
-      <c r="F371" t="s">
-        <v>17</v>
+      <c r="F371" t="b">
+        <v>1</v>
       </c>
       <c r="N371" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="372" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="372" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>362</v>
       </c>
@@ -8263,7 +8263,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="373" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="373" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>362</v>
       </c>
@@ -8280,7 +8280,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="374" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="374" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>362</v>
       </c>
@@ -8297,7 +8297,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="375" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="375" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>362</v>
       </c>
@@ -8314,7 +8314,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="376" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="376" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>362</v>
       </c>
@@ -8331,7 +8331,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="377" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="377" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>362</v>
       </c>
@@ -8348,7 +8348,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="378" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="378" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>362</v>
       </c>
@@ -8365,7 +8365,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="379" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="379" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>362</v>
       </c>
@@ -8382,7 +8382,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="380" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="380" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>460</v>
       </c>
@@ -8398,14 +8398,14 @@
       <c r="E380" t="s">
         <v>30</v>
       </c>
-      <c r="F380" t="s">
-        <v>17</v>
+      <c r="F380" t="b">
+        <v>1</v>
       </c>
       <c r="N380" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="381" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="381" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>460</v>
       </c>
@@ -8422,7 +8422,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="382" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="382" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>460</v>
       </c>
@@ -8439,7 +8439,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="383" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="383" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>460</v>
       </c>
@@ -8456,7 +8456,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="384" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="384" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>462</v>
       </c>
@@ -8472,14 +8472,14 @@
       <c r="E384" t="s">
         <v>30</v>
       </c>
-      <c r="F384" t="s">
-        <v>17</v>
+      <c r="F384" t="b">
+        <v>1</v>
       </c>
       <c r="N384" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="385" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="385" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>462</v>
       </c>
@@ -8496,7 +8496,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="386" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="386" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>462</v>
       </c>
@@ -8513,7 +8513,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="387" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="387" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>462</v>
       </c>
@@ -8530,7 +8530,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="388" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="388" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>463</v>
       </c>
@@ -8546,8 +8546,8 @@
       <c r="E388" t="s">
         <v>38</v>
       </c>
-      <c r="F388" t="s">
-        <v>17</v>
+      <c r="F388" t="b">
+        <v>1</v>
       </c>
       <c r="L388">
         <v>0</v>
@@ -8559,7 +8559,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="389" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="389" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>465</v>
       </c>
@@ -8575,14 +8575,14 @@
       <c r="E389" t="s">
         <v>53</v>
       </c>
-      <c r="F389" t="s">
-        <v>17</v>
+      <c r="F389" t="b">
+        <v>1</v>
       </c>
       <c r="N389" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="390" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="390" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>467</v>
       </c>
@@ -8598,14 +8598,14 @@
       <c r="E390" t="s">
         <v>18</v>
       </c>
-      <c r="F390" t="s">
-        <v>17</v>
+      <c r="F390" t="b">
+        <v>1</v>
       </c>
       <c r="N390" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="391" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="391" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>467</v>
       </c>
@@ -8622,7 +8622,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="392" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="392" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>467</v>
       </c>
@@ -8639,7 +8639,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="393" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="393" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>467</v>
       </c>
@@ -8656,7 +8656,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="394" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="394" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>467</v>
       </c>
@@ -8673,7 +8673,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="395" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="395" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>467</v>
       </c>
@@ -8690,7 +8690,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="396" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="396" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>467</v>
       </c>
@@ -8707,7 +8707,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="397" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="397" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>467</v>
       </c>
@@ -8724,7 +8724,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="398" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="398" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>467</v>
       </c>
@@ -8741,7 +8741,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="399" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="399" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>467</v>
       </c>
@@ -8758,7 +8758,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="400" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="400" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>467</v>
       </c>
@@ -8775,7 +8775,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="401" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="401" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>467</v>
       </c>
@@ -8792,7 +8792,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="402" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="402" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>483</v>
       </c>
@@ -8808,11 +8808,11 @@
       <c r="E402" t="s">
         <v>30</v>
       </c>
-      <c r="F402" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="403" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="F402" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="403" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>483</v>
       </c>
@@ -8826,7 +8826,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="404" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="404" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>483</v>
       </c>
@@ -8840,7 +8840,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="405" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="405" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>483</v>
       </c>
@@ -8854,7 +8854,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="406" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="406" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>483</v>
       </c>
@@ -8868,7 +8868,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="407" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="407" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>483</v>
       </c>
@@ -8882,7 +8882,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="408" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="408" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>490</v>
       </c>
@@ -8898,14 +8898,14 @@
       <c r="E408" t="s">
         <v>30</v>
       </c>
-      <c r="F408" t="s">
-        <v>17</v>
+      <c r="F408" t="b">
+        <v>1</v>
       </c>
       <c r="N408" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="409" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="409" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>490</v>
       </c>
@@ -8922,7 +8922,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="410" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="410" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>490</v>
       </c>
@@ -8939,7 +8939,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="411" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="411" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>490</v>
       </c>
@@ -8956,7 +8956,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="412" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="412" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>490</v>
       </c>
@@ -8973,7 +8973,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="413" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="413" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>496</v>
       </c>
@@ -8989,11 +8989,11 @@
       <c r="E413" t="s">
         <v>18</v>
       </c>
-      <c r="F413" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="414" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="F413" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="414" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>496</v>
       </c>
@@ -9007,7 +9007,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="415" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="415" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>496</v>
       </c>
@@ -9021,7 +9021,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="416" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="416" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>496</v>
       </c>
@@ -9035,7 +9035,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="417" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="417" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>496</v>
       </c>
@@ -9049,7 +9049,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="418" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="418" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>504</v>
       </c>
@@ -9065,11 +9065,11 @@
       <c r="E418" t="s">
         <v>30</v>
       </c>
-      <c r="F418" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="419" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="F418" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="419" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>504</v>
       </c>
@@ -9083,7 +9083,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="420" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="420" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>504</v>
       </c>
@@ -9097,7 +9097,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="421" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="421" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>504</v>
       </c>
@@ -9111,7 +9111,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="422" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="422" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>504</v>
       </c>
@@ -9125,7 +9125,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="423" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="423" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>504</v>
       </c>
@@ -9139,7 +9139,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="424" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="424" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>504</v>
       </c>
@@ -9153,7 +9153,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="425" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="425" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>511</v>
       </c>
@@ -9169,14 +9169,14 @@
       <c r="E425" t="s">
         <v>30</v>
       </c>
-      <c r="F425" t="s">
-        <v>17</v>
+      <c r="F425" t="b">
+        <v>1</v>
       </c>
       <c r="N425" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="426" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="426" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>511</v>
       </c>
@@ -9193,7 +9193,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="427" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="427" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>511</v>
       </c>
@@ -9210,7 +9210,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="428" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="428" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>511</v>
       </c>
@@ -9227,7 +9227,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="429" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="429" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>511</v>
       </c>
@@ -9244,7 +9244,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="430" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="430" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>517</v>
       </c>
@@ -9260,11 +9260,11 @@
       <c r="E430" t="s">
         <v>30</v>
       </c>
-      <c r="F430" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="431" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="F430" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="431" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>517</v>
       </c>
@@ -9278,7 +9278,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="432" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="432" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>517</v>
       </c>
@@ -9292,7 +9292,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="433" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="433" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>517</v>
       </c>
@@ -9306,7 +9306,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="434" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="434" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>517</v>
       </c>
@@ -9320,7 +9320,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="435" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="435" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>517</v>
       </c>
@@ -9334,7 +9334,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="436" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="436" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>517</v>
       </c>
@@ -9348,7 +9348,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="437" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="437" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>519</v>
       </c>
@@ -9364,14 +9364,14 @@
       <c r="E437" t="s">
         <v>30</v>
       </c>
-      <c r="F437" t="s">
-        <v>17</v>
+      <c r="F437" t="b">
+        <v>1</v>
       </c>
       <c r="N437" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="438" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="438" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>519</v>
       </c>
@@ -9388,7 +9388,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="439" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="439" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>519</v>
       </c>
@@ -9405,7 +9405,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="440" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="440" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>519</v>
       </c>
@@ -9422,7 +9422,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="441" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="441" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>519</v>
       </c>
@@ -9439,7 +9439,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="442" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="442" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>525</v>
       </c>
@@ -9455,14 +9455,14 @@
       <c r="E442" t="s">
         <v>18</v>
       </c>
-      <c r="F442" t="s">
-        <v>17</v>
+      <c r="F442" t="b">
+        <v>1</v>
       </c>
       <c r="N442" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="443" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="443" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>525</v>
       </c>
@@ -9479,7 +9479,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="444" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="444" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>525</v>
       </c>
@@ -9496,7 +9496,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="445" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="445" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>525</v>
       </c>
@@ -9513,7 +9513,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="446" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="446" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>525</v>
       </c>
@@ -9530,7 +9530,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="447" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="447" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>525</v>
       </c>
@@ -9547,7 +9547,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="448" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="448" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>532</v>
       </c>
@@ -9563,14 +9563,14 @@
       <c r="E448" t="s">
         <v>18</v>
       </c>
-      <c r="F448" t="s">
-        <v>17</v>
+      <c r="F448" t="b">
+        <v>1</v>
       </c>
       <c r="N448" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="449" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="449" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>532</v>
       </c>
@@ -9587,7 +9587,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="450" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="450" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>532</v>
       </c>
@@ -9604,7 +9604,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="451" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="451" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>532</v>
       </c>
@@ -9621,7 +9621,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="452" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="452" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>532</v>
       </c>
@@ -9638,7 +9638,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="453" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="453" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>532</v>
       </c>
@@ -9655,7 +9655,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="454" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="454" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>534</v>
       </c>
@@ -9671,14 +9671,14 @@
       <c r="E454" t="s">
         <v>18</v>
       </c>
-      <c r="F454" t="s">
-        <v>17</v>
+      <c r="F454" t="b">
+        <v>1</v>
       </c>
       <c r="N454" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="455" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="455" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>534</v>
       </c>
@@ -9695,7 +9695,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="456" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="456" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>534</v>
       </c>
@@ -9712,7 +9712,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="457" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="457" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>534</v>
       </c>
@@ -9729,7 +9729,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="458" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="458" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>534</v>
       </c>
@@ -9746,7 +9746,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="459" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="459" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>534</v>
       </c>
@@ -9763,7 +9763,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="460" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="460" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>536</v>
       </c>
@@ -9779,14 +9779,14 @@
       <c r="E460" t="s">
         <v>18</v>
       </c>
-      <c r="F460" t="s">
-        <v>17</v>
+      <c r="F460" t="b">
+        <v>1</v>
       </c>
       <c r="N460" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="461" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="461" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>536</v>
       </c>
@@ -9803,7 +9803,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="462" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="462" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>536</v>
       </c>
@@ -9820,7 +9820,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="463" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="463" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>536</v>
       </c>
@@ -9837,7 +9837,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="464" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="464" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>536</v>
       </c>
@@ -9854,7 +9854,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="465" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="465" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>536</v>
       </c>
@@ -9871,7 +9871,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="466" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="466" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>538</v>
       </c>
@@ -9887,14 +9887,14 @@
       <c r="E466" t="s">
         <v>18</v>
       </c>
-      <c r="F466" t="s">
-        <v>17</v>
+      <c r="F466" t="b">
+        <v>1</v>
       </c>
       <c r="N466" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="467" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="467" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>538</v>
       </c>
@@ -9911,7 +9911,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="468" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="468" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>538</v>
       </c>
@@ -9928,7 +9928,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="469" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="469" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>538</v>
       </c>
@@ -9945,7 +9945,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="470" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="470" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>538</v>
       </c>
@@ -9962,7 +9962,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="471" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="471" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>538</v>
       </c>
@@ -9979,7 +9979,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="472" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="472" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>540</v>
       </c>
@@ -9995,14 +9995,14 @@
       <c r="E472" t="s">
         <v>18</v>
       </c>
-      <c r="F472" t="s">
-        <v>17</v>
+      <c r="F472" t="b">
+        <v>1</v>
       </c>
       <c r="N472" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="473" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="473" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>540</v>
       </c>
@@ -10019,7 +10019,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="474" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="474" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>540</v>
       </c>
@@ -10036,7 +10036,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="475" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="475" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>540</v>
       </c>
@@ -10053,7 +10053,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="476" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="476" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>540</v>
       </c>
@@ -10070,7 +10070,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="477" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="477" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>540</v>
       </c>
@@ -10087,7 +10087,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="478" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="478" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>542</v>
       </c>
@@ -10103,14 +10103,14 @@
       <c r="E478" t="s">
         <v>18</v>
       </c>
-      <c r="F478" t="s">
-        <v>17</v>
+      <c r="F478" t="b">
+        <v>1</v>
       </c>
       <c r="N478" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="479" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="479" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>542</v>
       </c>
@@ -10127,7 +10127,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="480" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="480" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>542</v>
       </c>
@@ -10144,7 +10144,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="481" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="481" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>542</v>
       </c>
@@ -10161,7 +10161,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="482" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="482" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>542</v>
       </c>
@@ -10178,7 +10178,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="483" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="483" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>542</v>
       </c>
@@ -10195,7 +10195,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="484" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="484" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>544</v>
       </c>
@@ -10211,14 +10211,14 @@
       <c r="E484" t="s">
         <v>18</v>
       </c>
-      <c r="F484" t="s">
-        <v>17</v>
+      <c r="F484" t="b">
+        <v>1</v>
       </c>
       <c r="N484" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="485" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="485" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>544</v>
       </c>
@@ -10235,7 +10235,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="486" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="486" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>544</v>
       </c>
@@ -10252,7 +10252,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="487" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="487" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>544</v>
       </c>
@@ -10269,7 +10269,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="488" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="488" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>544</v>
       </c>
@@ -10286,7 +10286,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="489" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="489" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>544</v>
       </c>
@@ -10303,7 +10303,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="490" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="490" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>546</v>
       </c>
@@ -10319,14 +10319,14 @@
       <c r="E490" t="s">
         <v>53</v>
       </c>
-      <c r="F490" t="s">
-        <v>17</v>
+      <c r="F490" t="b">
+        <v>1</v>
       </c>
       <c r="N490" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="491" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="491" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
         <v>548</v>
       </c>
@@ -10342,14 +10342,14 @@
       <c r="E491" t="s">
         <v>53</v>
       </c>
-      <c r="F491" t="s">
-        <v>17</v>
+      <c r="F491" t="b">
+        <v>1</v>
       </c>
       <c r="N491" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="492" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="492" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>550</v>
       </c>
@@ -10365,14 +10365,14 @@
       <c r="E492" t="s">
         <v>53</v>
       </c>
-      <c r="F492" t="s">
-        <v>17</v>
+      <c r="F492" t="b">
+        <v>1</v>
       </c>
       <c r="N492" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="493" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="493" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>552</v>
       </c>
@@ -10388,11 +10388,11 @@
       <c r="E493" t="s">
         <v>53</v>
       </c>
-      <c r="F493" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="494" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="F493" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="494" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
         <v>554</v>
       </c>
@@ -10408,11 +10408,11 @@
       <c r="E494" t="s">
         <v>53</v>
       </c>
-      <c r="F494" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="495" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="F494" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="495" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>556</v>
       </c>
@@ -10428,11 +10428,11 @@
       <c r="E495" t="s">
         <v>53</v>
       </c>
-      <c r="F495" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="496" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="F495" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="496" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
         <v>558</v>
       </c>
@@ -10448,11 +10448,11 @@
       <c r="E496" t="s">
         <v>53</v>
       </c>
-      <c r="F496" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="497" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="F496" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="497" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>560</v>
       </c>
@@ -10468,14 +10468,14 @@
       <c r="E497" t="s">
         <v>53</v>
       </c>
-      <c r="F497" t="s">
-        <v>17</v>
+      <c r="F497" t="b">
+        <v>1</v>
       </c>
       <c r="N497" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="498" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="498" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>562</v>
       </c>
@@ -10491,11 +10491,11 @@
       <c r="E498" t="s">
         <v>53</v>
       </c>
-      <c r="F498" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="499" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="F498" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="499" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
         <v>564</v>
       </c>
@@ -10511,11 +10511,11 @@
       <c r="E499" t="s">
         <v>53</v>
       </c>
-      <c r="F499" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="500" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="F499" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="500" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
         <v>566</v>
       </c>
@@ -10531,11 +10531,11 @@
       <c r="E500" t="s">
         <v>53</v>
       </c>
-      <c r="F500" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="501" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="F500" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="501" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
         <v>568</v>
       </c>
@@ -10551,11 +10551,11 @@
       <c r="E501" t="s">
         <v>53</v>
       </c>
-      <c r="F501" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="502" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="F501" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="502" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
         <v>570</v>
       </c>
@@ -10571,11 +10571,11 @@
       <c r="E502" t="s">
         <v>53</v>
       </c>
-      <c r="F502" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="503" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="F502" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="503" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
         <v>572</v>
       </c>
@@ -10591,11 +10591,11 @@
       <c r="E503" t="s">
         <v>53</v>
       </c>
-      <c r="F503" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="504" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="F503" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="504" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
         <v>574</v>
       </c>
@@ -10611,11 +10611,11 @@
       <c r="E504" t="s">
         <v>15</v>
       </c>
-      <c r="F504" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="505" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="F504" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="505" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
         <v>574</v>
       </c>
@@ -10629,7 +10629,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="506" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="506" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
         <v>574</v>
       </c>
@@ -10643,7 +10643,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="507" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="507" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
         <v>574</v>
       </c>
@@ -10657,7 +10657,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="508" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="508" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
         <v>574</v>
       </c>
@@ -10671,7 +10671,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="509" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="509" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
         <v>574</v>
       </c>
@@ -10685,7 +10685,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="510" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="510" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
         <v>574</v>
       </c>
@@ -10699,7 +10699,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="511" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="511" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
         <v>574</v>
       </c>
@@ -10713,7 +10713,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="512" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="512" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
         <v>574</v>
       </c>
@@ -10727,7 +10727,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="513" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="513" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
         <v>574</v>
       </c>
@@ -10741,7 +10741,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="514" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="514" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
         <v>574</v>
       </c>
@@ -10755,7 +10755,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="515" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="515" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
         <v>574</v>
       </c>
@@ -10769,7 +10769,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="516" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="516" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
         <v>574</v>
       </c>
@@ -10783,7 +10783,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="517" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="517" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
         <v>574</v>
       </c>
@@ -10797,7 +10797,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="518" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="518" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
         <v>596</v>
       </c>
@@ -10813,11 +10813,11 @@
       <c r="E518" t="s">
         <v>15</v>
       </c>
-      <c r="F518" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="519" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F518" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="519" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
         <v>596</v>
       </c>
@@ -10831,7 +10831,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="520" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="520" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
         <v>596</v>
       </c>
@@ -10845,7 +10845,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="521" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="521" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
         <v>596</v>
       </c>
@@ -10859,7 +10859,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="522" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="522" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
         <v>596</v>
       </c>
@@ -10873,7 +10873,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="523" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="523" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
         <v>596</v>
       </c>
@@ -10887,7 +10887,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="524" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="524" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
         <v>596</v>
       </c>
@@ -10901,7 +10901,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="525" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="525" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
         <v>596</v>
       </c>
@@ -10915,7 +10915,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="526" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="526" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
         <v>596</v>
       </c>
@@ -10929,7 +10929,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="527" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="527" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
         <v>596</v>
       </c>
@@ -10943,7 +10943,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="528" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="528" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
         <v>596</v>
       </c>
@@ -10957,7 +10957,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="529" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="529" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
         <v>596</v>
       </c>
@@ -10971,7 +10971,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="530" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="530" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
         <v>596</v>
       </c>
@@ -10985,7 +10985,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="531" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="531" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
         <v>596</v>
       </c>
@@ -10999,7 +10999,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="532" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="532" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
         <v>598</v>
       </c>
@@ -11015,11 +11015,11 @@
       <c r="E532" t="s">
         <v>15</v>
       </c>
-      <c r="F532" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="533" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F532" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="533" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
         <v>598</v>
       </c>
@@ -11033,7 +11033,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="534" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="534" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
         <v>598</v>
       </c>
@@ -11047,7 +11047,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="535" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="535" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
         <v>598</v>
       </c>
@@ -11061,7 +11061,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="536" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="536" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
         <v>598</v>
       </c>
@@ -11075,7 +11075,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="537" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="537" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
         <v>598</v>
       </c>
@@ -11089,7 +11089,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="538" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="538" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
         <v>604</v>
       </c>
@@ -11105,11 +11105,11 @@
       <c r="E538" t="s">
         <v>15</v>
       </c>
-      <c r="F538" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="539" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F538" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="539" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
         <v>604</v>
       </c>
@@ -11123,7 +11123,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="540" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="540" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
         <v>604</v>
       </c>
@@ -11137,7 +11137,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="541" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="541" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
         <v>604</v>
       </c>
@@ -11151,7 +11151,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="542" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="542" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
         <v>604</v>
       </c>
@@ -11165,7 +11165,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="543" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="543" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
         <v>604</v>
       </c>
@@ -11179,7 +11179,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="544" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="544" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
         <v>606</v>
       </c>
@@ -11195,11 +11195,11 @@
       <c r="E544" t="s">
         <v>15</v>
       </c>
-      <c r="F544" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="545" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F544" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="545" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
         <v>606</v>
       </c>
@@ -11213,7 +11213,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="546" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="546" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
         <v>606</v>
       </c>
@@ -11227,7 +11227,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="547" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="547" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
         <v>606</v>
       </c>
@@ -11241,7 +11241,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="548" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="548" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
         <v>606</v>
       </c>
@@ -11255,7 +11255,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="549" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="549" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
         <v>606</v>
       </c>
@@ -11269,7 +11269,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="550" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="550" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
         <v>606</v>
       </c>
@@ -11283,7 +11283,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="551" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="551" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
         <v>618</v>
       </c>
@@ -11299,11 +11299,11 @@
       <c r="E551" t="s">
         <v>15</v>
       </c>
-      <c r="F551" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="552" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F551" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="552" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
         <v>618</v>
       </c>
@@ -11317,7 +11317,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="553" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="553" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
         <v>618</v>
       </c>
@@ -11331,7 +11331,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="554" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="554" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
         <v>618</v>
       </c>
@@ -11345,7 +11345,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="555" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="555" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
         <v>618</v>
       </c>
@@ -11359,7 +11359,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="556" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="556" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
         <v>618</v>
       </c>
@@ -11373,7 +11373,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="557" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="557" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
         <v>618</v>
       </c>
@@ -11387,7 +11387,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="558" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="558" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
         <v>620</v>
       </c>
@@ -11403,11 +11403,11 @@
       <c r="E558" t="s">
         <v>15</v>
       </c>
-      <c r="F558" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="559" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F558" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="559" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
         <v>622</v>
       </c>
@@ -11423,11 +11423,11 @@
       <c r="E559" t="s">
         <v>15</v>
       </c>
-      <c r="F559" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="560" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F559" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="560" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
         <v>624</v>
       </c>
@@ -11443,11 +11443,11 @@
       <c r="E560" t="s">
         <v>15</v>
       </c>
-      <c r="F560" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="561" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="F560" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="561" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
         <v>626</v>
       </c>
@@ -11463,11 +11463,11 @@
       <c r="E561" t="s">
         <v>15</v>
       </c>
-      <c r="F561" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="562" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="F561" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="562" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
         <v>628</v>
       </c>
@@ -11483,14 +11483,14 @@
       <c r="E562" t="s">
         <v>38</v>
       </c>
-      <c r="F562" t="s">
-        <v>17</v>
+      <c r="F562" t="b">
+        <v>1</v>
       </c>
       <c r="G562" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="563" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="563" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
         <v>630</v>
       </c>
@@ -11506,14 +11506,14 @@
       <c r="E563" t="s">
         <v>38</v>
       </c>
-      <c r="F563" t="s">
-        <v>17</v>
+      <c r="F563" t="b">
+        <v>1</v>
       </c>
       <c r="G563" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="564" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="564" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
         <v>632</v>
       </c>
@@ -11529,11 +11529,11 @@
       <c r="E564" t="s">
         <v>15</v>
       </c>
-      <c r="F564" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="565" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="F564" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="565" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
         <v>634</v>
       </c>
@@ -11549,11 +11549,11 @@
       <c r="E565" t="s">
         <v>15</v>
       </c>
-      <c r="F565" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="566" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="F565" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="566" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
         <v>636</v>
       </c>
@@ -11569,11 +11569,11 @@
       <c r="E566" t="s">
         <v>15</v>
       </c>
-      <c r="F566" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="567" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="F566" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="567" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
         <v>638</v>
       </c>
@@ -11589,11 +11589,11 @@
       <c r="E567" t="s">
         <v>15</v>
       </c>
-      <c r="F567" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="568" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="F567" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="568" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
         <v>640</v>
       </c>
@@ -11609,11 +11609,11 @@
       <c r="E568" t="s">
         <v>15</v>
       </c>
-      <c r="F568" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="569" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="F568" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="569" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
         <v>642</v>
       </c>
@@ -11629,11 +11629,11 @@
       <c r="E569" t="s">
         <v>15</v>
       </c>
-      <c r="F569" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="570" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="F569" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="570" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
         <v>644</v>
       </c>
@@ -11649,14 +11649,14 @@
       <c r="E570" t="s">
         <v>38</v>
       </c>
-      <c r="F570" t="s">
-        <v>17</v>
+      <c r="F570" t="b">
+        <v>1</v>
       </c>
       <c r="G570" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="571" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="571" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
         <v>647</v>
       </c>
@@ -11672,11 +11672,11 @@
       <c r="E571" t="s">
         <v>53</v>
       </c>
-      <c r="F571" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="572" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="F571" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="572" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
         <v>649</v>
       </c>
@@ -11692,14 +11692,14 @@
       <c r="E572" t="s">
         <v>42</v>
       </c>
-      <c r="F572" t="s">
-        <v>17</v>
+      <c r="F572" t="b">
+        <v>1</v>
       </c>
       <c r="N572" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="573" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="573" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
         <v>651</v>
       </c>
@@ -11715,8 +11715,8 @@
       <c r="E573" t="s">
         <v>38</v>
       </c>
-      <c r="F573" t="s">
-        <v>17</v>
+      <c r="F573" t="b">
+        <v>1</v>
       </c>
       <c r="G573" t="s">
         <v>653</v>
@@ -11725,7 +11725,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="574" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="574" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
         <v>655</v>
       </c>
@@ -11741,14 +11741,14 @@
       <c r="E574" t="s">
         <v>15</v>
       </c>
-      <c r="F574" t="s">
-        <v>17</v>
+      <c r="F574" t="b">
+        <v>1</v>
       </c>
       <c r="N574" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="575" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="575" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
         <v>655</v>
       </c>
@@ -11762,7 +11762,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="576" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="576" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
         <v>655</v>
       </c>
@@ -11776,7 +11776,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="577" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="577" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
         <v>655</v>
       </c>
@@ -11790,7 +11790,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="578" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="578" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
         <v>655</v>
       </c>
@@ -11804,7 +11804,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="579" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="579" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
         <v>655</v>
       </c>
@@ -11818,7 +11818,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="580" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="580" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
         <v>667</v>
       </c>
@@ -11834,8 +11834,8 @@
       <c r="E580" t="s">
         <v>15</v>
       </c>
-      <c r="F580" t="s">
-        <v>17</v>
+      <c r="F580" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -11885,9 +11885,9 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -11895,7 +11895,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -11903,202 +11903,202 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>58</v>
       </c>
@@ -12109,6 +12109,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DE904D578DFE6844BEAE84BDC2B4097E" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5270cfe5b55ea3ba0621c55bb260cb69">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="847bd2b6-c417-48b3-84b7-e392c504f3bb" xmlns:ns4="f32a61f4-5698-46d5-9f56-343e6d7dc7d7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2f6d81c817a7b765436e9b6c5a88d8e2" ns3:_="" ns4:_="">
     <xsd:import namespace="847bd2b6-c417-48b3-84b7-e392c504f3bb"/>
@@ -12323,22 +12338,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A3D0911F-2993-4E19-BC2B-FED2A54D7EF0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="f32a61f4-5698-46d5-9f56-343e6d7dc7d7"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="847bd2b6-c417-48b3-84b7-e392c504f3bb"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{609ECA9C-9940-47E7-A90E-CA03665A4390}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED6DCA26-7714-4039-89ED-0EF8E577943F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -12355,29 +12380,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{609ECA9C-9940-47E7-A90E-CA03665A4390}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A3D0911F-2993-4E19-BC2B-FED2A54D7EF0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="f32a61f4-5698-46d5-9f56-343e6d7dc7d7"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="847bd2b6-c417-48b3-84b7-e392c504f3bb"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/downloads/Banding_Dictionary.xlsx
+++ b/downloads/Banding_Dictionary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://doimspp-my.sharepoint.com/personal/hannah_vincelette_fws_gov/Documents/Documents/GitHub/landbird-dp-workflow/downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="111" documentId="11_2289D301091B2B4030687AF5F393CD8BCC9B1276" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{602CD6E5-1A7B-4CC5-BC5C-0AAC88727314}"/>
+  <xr:revisionPtr revIDLastSave="122" documentId="11_2289D301091B2B4030687AF5F393CD8BCC9B1276" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9FC21C07-5C1B-4460-89E2-1A538CEC8272}"/>
   <bookViews>
     <workbookView xWindow="10440" yWindow="3090" windowWidth="15765" windowHeight="10275" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2475" uniqueCount="697">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2479" uniqueCount="699">
   <si>
     <t>codeName</t>
   </si>
@@ -2131,6 +2131,12 @@
   </si>
   <si>
     <t>Unique brood identifier; based on the flag code(s) of one or both adult(s) associated with the brood; if both adult flags codes used, identifier is formatted with a "/" seperating the codes</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Not applicable</t>
   </si>
 </sst>
 </file>
@@ -2458,11 +2464,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N580"/>
+  <dimension ref="A1:N581"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A255" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I1" activeCellId="1" sqref="F1:F1048576 I1:I1048576"/>
+      <pane ySplit="1" topLeftCell="A578" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A582" sqref="A582:XFD582"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11836,6 +11842,20 @@
       </c>
       <c r="F580" t="b">
         <v>1</v>
+      </c>
+    </row>
+    <row r="581" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A581" t="s">
+        <v>697</v>
+      </c>
+      <c r="B581" t="s">
+        <v>345</v>
+      </c>
+      <c r="C581" t="s">
+        <v>345</v>
+      </c>
+      <c r="D581" t="s">
+        <v>698</v>
       </c>
     </row>
   </sheetData>
@@ -11869,7 +11889,7 @@
           <x14:formula1>
             <xm:f>validation_values!$B$1:$B$3</xm:f>
           </x14:formula1>
-          <xm:sqref>F250:F1048576 F2:F248 I2:I248 I250:I1048576</xm:sqref>
+          <xm:sqref>F2:F248 I2:I248 I250:I1048576 F250:F1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -12109,21 +12129,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DE904D578DFE6844BEAE84BDC2B4097E" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5270cfe5b55ea3ba0621c55bb260cb69">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="847bd2b6-c417-48b3-84b7-e392c504f3bb" xmlns:ns4="f32a61f4-5698-46d5-9f56-343e6d7dc7d7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2f6d81c817a7b765436e9b6c5a88d8e2" ns3:_="" ns4:_="">
     <xsd:import namespace="847bd2b6-c417-48b3-84b7-e392c504f3bb"/>
@@ -12338,32 +12343,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A3D0911F-2993-4E19-BC2B-FED2A54D7EF0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="f32a61f4-5698-46d5-9f56-343e6d7dc7d7"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="847bd2b6-c417-48b3-84b7-e392c504f3bb"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{609ECA9C-9940-47E7-A90E-CA03665A4390}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED6DCA26-7714-4039-89ED-0EF8E577943F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -12380,4 +12375,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{609ECA9C-9940-47E7-A90E-CA03665A4390}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A3D0911F-2993-4E19-BC2B-FED2A54D7EF0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="f32a61f4-5698-46d5-9f56-343e6d7dc7d7"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="847bd2b6-c417-48b3-84b7-e392c504f3bb"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/downloads/Banding_Dictionary.xlsx
+++ b/downloads/Banding_Dictionary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://doimspp-my.sharepoint.com/personal/hannah_vincelette_fws_gov/Documents/Documents/GitHub/landbird-dp-workflow/downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="122" documentId="11_2289D301091B2B4030687AF5F393CD8BCC9B1276" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9FC21C07-5C1B-4460-89E2-1A538CEC8272}"/>
+  <xr:revisionPtr revIDLastSave="125" documentId="11_2289D301091B2B4030687AF5F393CD8BCC9B1276" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{895A9BC3-3A22-476F-A321-DFEED4CD19C7}"/>
   <bookViews>
-    <workbookView xWindow="10440" yWindow="3090" windowWidth="15765" windowHeight="10275" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11424" yWindow="-3936" windowWidth="23232" windowHeight="13992" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data_dictionary" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2479" uniqueCount="699">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2475" uniqueCount="697">
   <si>
     <t>codeName</t>
   </si>
@@ -2131,12 +2131,6 @@
   </si>
   <si>
     <t>Unique brood identifier; based on the flag code(s) of one or both adult(s) associated with the brood; if both adult flags codes used, identifier is formatted with a "/" seperating the codes</t>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t>Not applicable</t>
   </si>
 </sst>
 </file>
@@ -2464,11 +2458,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N581"/>
+  <dimension ref="A1:N580"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A578" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A582" sqref="A582:XFD582"/>
+      <pane ySplit="1" topLeftCell="A255" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I1" activeCellId="1" sqref="F1:F1048576 I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11842,20 +11836,6 @@
       </c>
       <c r="F580" t="b">
         <v>1</v>
-      </c>
-    </row>
-    <row r="581" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A581" t="s">
-        <v>697</v>
-      </c>
-      <c r="B581" t="s">
-        <v>345</v>
-      </c>
-      <c r="C581" t="s">
-        <v>345</v>
-      </c>
-      <c r="D581" t="s">
-        <v>698</v>
       </c>
     </row>
   </sheetData>
@@ -11889,7 +11869,7 @@
           <x14:formula1>
             <xm:f>validation_values!$B$1:$B$3</xm:f>
           </x14:formula1>
-          <xm:sqref>F2:F248 I2:I248 I250:I1048576 F250:F1048576</xm:sqref>
+          <xm:sqref>F250:F1048576 F2:F248 I2:I248 I250:I1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -12129,6 +12109,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DE904D578DFE6844BEAE84BDC2B4097E" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5270cfe5b55ea3ba0621c55bb260cb69">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="847bd2b6-c417-48b3-84b7-e392c504f3bb" xmlns:ns4="f32a61f4-5698-46d5-9f56-343e6d7dc7d7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2f6d81c817a7b765436e9b6c5a88d8e2" ns3:_="" ns4:_="">
     <xsd:import namespace="847bd2b6-c417-48b3-84b7-e392c504f3bb"/>
@@ -12343,22 +12338,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A3D0911F-2993-4E19-BC2B-FED2A54D7EF0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="f32a61f4-5698-46d5-9f56-343e6d7dc7d7"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="847bd2b6-c417-48b3-84b7-e392c504f3bb"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{609ECA9C-9940-47E7-A90E-CA03665A4390}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED6DCA26-7714-4039-89ED-0EF8E577943F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -12375,29 +12380,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{609ECA9C-9940-47E7-A90E-CA03665A4390}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A3D0911F-2993-4E19-BC2B-FED2A54D7EF0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="f32a61f4-5698-46d5-9f56-343e6d7dc7d7"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="847bd2b6-c417-48b3-84b7-e392c504f3bb"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>